--- a/results/I3_N5_M3_T15_C100_DepCentral_s2_mean_res.xlsx
+++ b/results/I3_N5_M3_T15_C100_DepCentral_s2_mean_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>737.4278541873776</v>
+        <v>612.1078541869114</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1380000114440918</v>
+        <v>0.1119999885559082</v>
       </c>
     </row>
     <row r="5">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>3.516731437002262</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>3.516731437002262</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>612.0400000004663</v>
+        <v>440</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>93.28</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -580,6 +580,17 @@
         <is>
           <t>alpha</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -645,7 +656,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -667,7 +678,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -678,7 +689,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -689,7 +700,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -700,7 +711,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -769,7 +780,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -780,7 +791,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -882,7 +893,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>10.20829884070386</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -890,7 +901,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>7.723639784306477</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -898,7 +909,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>10.71676524108239</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -944,7 +955,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -972,6 +983,20 @@
         <is>
           <t>y</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B2" t="n">
+        <v>6</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1029,7 +1054,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>37.34699999999986</v>
+        <v>49.4</v>
       </c>
     </row>
     <row r="4">
@@ -1040,7 +1065,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>115.2720000000006</v>
+        <v>68.59999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -1051,7 +1076,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>38.14099999999934</v>
+        <v>128.8</v>
       </c>
     </row>
     <row r="6">
@@ -1062,7 +1087,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>145.9320000000004</v>
+        <v>63.2</v>
       </c>
     </row>
     <row r="7">
@@ -1073,7 +1098,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>84.88600000000042</v>
+        <v>115.2</v>
       </c>
     </row>
     <row r="8">
@@ -1084,7 +1109,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>115.2720000000134</v>
+        <v>115.2</v>
       </c>
     </row>
     <row r="9">
@@ -1095,7 +1120,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>84.88600000002045</v>
+        <v>68.59999999999999</v>
       </c>
     </row>
     <row r="10">
@@ -1106,7 +1131,7 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>145.9320000000333</v>
+        <v>128.8</v>
       </c>
     </row>
   </sheetData>
@@ -1153,7 +1178,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>15.27200000001338</v>
+        <v>15.2</v>
       </c>
     </row>
     <row r="3">
@@ -1175,7 +1200,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>45.93200000003326</v>
+        <v>28.8</v>
       </c>
     </row>
   </sheetData>
@@ -1222,7 +1247,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>3.726</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="3">
@@ -1244,7 +1269,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>5.601999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1255,7 +1280,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="6">
@@ -1307,7 +1332,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -1318,7 +1343,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" t="n">
         <v>1</v>
